--- a/medicine/Pharmacie/Étienne_Flaubert_Batangu_Mpesa/Étienne_Flaubert_Batangu_Mpesa.xlsx
+++ b/medicine/Pharmacie/Étienne_Flaubert_Batangu_Mpesa/Étienne_Flaubert_Batangu_Mpesa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Flaubert_Batangu_Mpesa</t>
+          <t>Étienne_Flaubert_Batangu_Mpesa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Flaubert Batangu Mpesa, né le 4 novembre 1942 à Manianga dans le territoire de Luozi dans le Kongo-central, mort le 5 mars 2021 à Kinshasa de suite d'un cancer du pancréas, est un pharmacien et chercheur scientifique congolais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Flaubert_Batangu_Mpesa</t>
+          <t>Étienne_Flaubert_Batangu_Mpesa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,49 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flaubert Batangu est depuis 1980 le fondateur et promoteur du Centre de recherche pharmaceutique de Luozi (CRPL) et de son portail web ; duquel il a demeuré à la tête d’une équipe de chercheurs pharmaciens, dont sa fille[1],[2],[3].
-Recherche médicale
-Il est le géniteur des produits pharmaceutiques[4] : « Manadiar »[5] conçus pour combattre la diarrhée amibienne et « Manalaria »[6] pour lutter contre la malaria.
-En novembre 2020, Flaubert Batangu voit son produit « Manacovid »[7],[8] mis au point depuis mars 2020, homologué par le ministère de la Santé en République Démocratique du Congo en réponse dans le traitement de la Covid-19[9],[10]. Le produit, composé à partir de plantes, est vendu à un prix exorbitant en attendant que l’État congolais prenne en charge sa distribution[11]. Le produit n'est pas encore approuvé par l'OMS[12] alors qu'il est proposé par le gouvernement congolais à la reconnaissance internationale[13],[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flaubert Batangu est depuis 1980 le fondateur et promoteur du Centre de recherche pharmaceutique de Luozi (CRPL) et de son portail web ; duquel il a demeuré à la tête d’une équipe de chercheurs pharmaciens, dont sa fille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Étienne_Flaubert_Batangu_Mpesa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Flaubert_Batangu_Mpesa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Recherche médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le géniteur des produits pharmaceutiques : « Manadiar » conçus pour combattre la diarrhée amibienne et « Manalaria » pour lutter contre la malaria.
+En novembre 2020, Flaubert Batangu voit son produit « Manacovid », mis au point depuis mars 2020, homologué par le ministère de la Santé en République Démocratique du Congo en réponse dans le traitement de la Covid-19,. Le produit, composé à partir de plantes, est vendu à un prix exorbitant en attendant que l’État congolais prenne en charge sa distribution. Le produit n'est pas encore approuvé par l'OMS alors qu'il est proposé par le gouvernement congolais à la reconnaissance internationale,.
 </t>
         </is>
       </c>
